--- a/plan/test/結合テスト/結合テスト仕様書-BP018注文ステータス更新(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP018注文ステータス更新(完了)画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E877ED5-0B5F-4560-B479-80585B4E089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BA0484-F0BC-4C0E-8FDB-4071ADF06083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1750" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>作成者</t>
   </si>
@@ -528,6 +528,62 @@
   <si>
     <t>テーブルヘッダーに購入日時、顧客アカウント(氏名)、注文内容、ステータスが表示され、テーブルデータに注文ステータス更新する商品情報が表示されている
 ステータスには入金済みが表示されている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「不正な操作」</t>
+    <rPh sb="1" eb="3">
+      <t>フセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログイン前メニュー」画面が表示される。</t>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティ確認</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/updateorderstatus/complete」を入力</t>
+    <rPh sb="8" eb="10">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/updateorderstatus/complete」を入力</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ニュウリョク</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -887,125 +943,125 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1357,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1376,25 +1432,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="35" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="44" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1409,23 +1465,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="41" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1438,50 +1494,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="36.5" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="47"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="46" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="47"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1490,20 +1546,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="18" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1513,82 +1569,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="30"/>
+      <c r="Q5" s="41"/>
     </row>
     <row r="6" spans="1:17" ht="13" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
     </row>
     <row r="7" spans="1:17" ht="13" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
     </row>
     <row r="8" spans="1:17" ht="13" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="25" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1600,18 +1656,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1623,18 +1679,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="25" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1646,18 +1702,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="25" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1669,18 +1725,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="25" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1692,18 +1748,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="25" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1715,20 +1771,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1740,20 +1796,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="25" t="s">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1765,18 +1821,18 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="25" t="s">
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1787,156 +1843,208 @@
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="21" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
     </row>
     <row r="18" spans="1:17" ht="13" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="25" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="21" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
     </row>
     <row r="19" spans="1:17" ht="13" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="25" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="21" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
     </row>
     <row r="20" spans="1:17" ht="13" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="25" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="21" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
     </row>
     <row r="21" spans="1:17" ht="13" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="25" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="21" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
     </row>
     <row r="22" spans="1:17" ht="13" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22" t="s">
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+    </row>
+    <row r="23" spans="1:17" ht="56.5" customHeight="1">
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="55">
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="P22:Q22"/>
@@ -1987,6 +2095,11 @@
     <mergeCell ref="H11:L11"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP018注文ステータス更新(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP018注文ステータス更新(完了)画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\javaReview\ec-b\plan\test\結合テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BA0484-F0BC-4C0E-8FDB-4071ADF06083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E467937-0418-471F-BF4D-1231E2828014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1750" windowWidth="15140" windowHeight="9050" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="サンプル" sheetId="177" r:id="rId1"/>
@@ -561,27 +561,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/updateorderstatus/complete」を入力</t>
+    <t>ログインしている状態でアドレスバーに直接「http://localhost:8080/admin/updateorderstatus/complete」を入力</t>
     <rPh sb="8" eb="10">
       <t>ジョウタイ</t>
     </rPh>
     <rPh sb="18" eb="20">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="71" eb="73">
+    <rPh sb="77" eb="79">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/updateorderstatus/complete」を入力</t>
+    <t>ログインしていない状態でアドレスバーに直接「http://localhost:8080/admin/updateorderstatus/complete」を入力</t>
     <rPh sb="9" eb="11">
       <t>ジョウタイ</t>
     </rPh>
     <rPh sb="19" eb="21">
       <t>チョクセツ</t>
     </rPh>
-    <rPh sb="72" eb="74">
+    <rPh sb="78" eb="80">
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -943,6 +943,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -952,21 +976,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -976,6 +985,75 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -984,84 +1062,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1432,25 +1432,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="47" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50" t="s">
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1465,23 +1465,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="51" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="54" t="s">
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="56"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1494,50 +1494,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="36.5" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="38"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="50"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="48"/>
+      <c r="C4" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1546,20 +1546,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1569,82 +1569,82 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="40" t="s">
+      <c r="P5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="41"/>
+      <c r="Q5" s="53"/>
     </row>
     <row r="6" spans="1:17" ht="13" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" ht="13" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" ht="13" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="18" t="s">
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1656,18 +1656,18 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="18" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1679,18 +1679,18 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="18" t="s">
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1702,18 +1702,18 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="18" t="s">
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1725,18 +1725,18 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="18" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1753,13 +1753,13 @@
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1771,20 +1771,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1796,20 +1796,20 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="18" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1826,13 +1826,13 @@
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1843,175 +1843,175 @@
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="43" t="s">
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" ht="13" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="43" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" ht="13" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="43" t="s">
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:17" ht="13" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="43" t="s">
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="43"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="1:17" ht="13" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="43" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="43"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="1:17" ht="13" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
       <c r="B22" s="25"/>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="21" t="s">
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="43"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
     </row>
     <row r="23" spans="1:17" ht="56.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2023,20 +2023,20 @@
         <v>19</v>
       </c>
       <c r="B24" s="25"/>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -2045,6 +2045,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G16"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="H22:L22"/>
     <mergeCell ref="P22:Q22"/>
@@ -2061,45 +2100,6 @@
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP018注文ステータス更新(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP018注文ステータス更新(完了)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E467937-0418-471F-BF4D-1231E2828014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91D8B0B-343A-4054-9AD0-FDB33E1F3919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>作成者</t>
   </si>
@@ -583,6 +583,27 @@
     </rPh>
     <rPh sb="78" eb="80">
       <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSRF対策：
+画面をリロードする</t>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのままの画面が表示されること</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -943,38 +964,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1413,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:G24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1578,53 +1599,53 @@
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
       <c r="M6" s="15"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
     </row>
     <row r="7" spans="1:17" ht="13" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="15"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" ht="13" customHeight="1">
       <c r="A8" s="6">
@@ -1638,13 +1659,13 @@
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="31"/>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="15"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1661,13 +1682,13 @@
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
       <c r="G9" s="57"/>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="15"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1684,13 +1705,13 @@
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
       <c r="G10" s="57"/>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
       <c r="M10" s="15"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1707,13 +1728,13 @@
       <c r="E11" s="56"/>
       <c r="F11" s="56"/>
       <c r="G11" s="57"/>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="15"/>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1730,13 +1751,13 @@
       <c r="E12" s="56"/>
       <c r="F12" s="56"/>
       <c r="G12" s="57"/>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="28"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="15"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1753,13 +1774,13 @@
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="34"/>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
       <c r="M13" s="15"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1771,20 +1792,20 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="26" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="28"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="15"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1803,13 +1824,13 @@
       <c r="E15" s="30"/>
       <c r="F15" s="30"/>
       <c r="G15" s="31"/>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="15"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1826,13 +1847,13 @@
       <c r="E16" s="33"/>
       <c r="F16" s="33"/>
       <c r="G16" s="34"/>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
       <c r="M16" s="15"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1843,175 +1864,175 @@
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="19" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
       <c r="M17" s="15"/>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
     </row>
     <row r="18" spans="1:17" ht="13" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="26" t="s">
+      <c r="B18" s="25"/>
+      <c r="C18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="19" t="s">
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
       <c r="M18" s="15"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
     </row>
     <row r="19" spans="1:17" ht="13" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="26" t="s">
+      <c r="B19" s="25"/>
+      <c r="C19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="19" t="s">
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="15"/>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
     </row>
     <row r="20" spans="1:17" ht="13" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="19" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="15"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
     </row>
     <row r="21" spans="1:17" ht="13" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="19" t="s">
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="15"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
     </row>
     <row r="22" spans="1:17" ht="13" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="20" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="15"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="19"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
     </row>
     <row r="23" spans="1:17" ht="56.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="20" t="s">
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="15"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -2023,33 +2044,53 @@
         <v>19</v>
       </c>
       <c r="B24" s="25"/>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="20" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="15"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
     </row>
+    <row r="25" spans="1:17" ht="58.5" customHeight="1">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c r="B25" s="26"/>
+      <c r="C25" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="B23:B24"/>
+  <mergeCells count="57">
     <mergeCell ref="H10:L10"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="C8:G13"/>
@@ -2076,16 +2117,12 @@
     <mergeCell ref="F1:M1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:M2"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="H14:L14"/>
     <mergeCell ref="C15:G16"/>
     <mergeCell ref="H15:L15"/>
     <mergeCell ref="H16:L16"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="C17:G17"/>
@@ -2100,6 +2137,17 @@
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:L20"/>
     <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP018注文ステータス更新(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP018注文ステータス更新(完了)画面.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91D8B0B-343A-4054-9AD0-FDB33E1F3919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F28933-0BF5-41CB-8B96-495564785B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>作成者</t>
   </si>
@@ -531,16 +531,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「不正な操作」</t>
-    <rPh sb="1" eb="3">
-      <t>フセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「ログイン前メニュー」画面が表示される。</t>
     <rPh sb="5" eb="6">
       <t>マエ</t>
@@ -598,13 +588,31 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>そのままの画面が表示されること</t>
-    <rPh sb="5" eb="7">
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舘川・高良</t>
+    <rPh sb="0" eb="2">
+      <t>タチカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面が表示されること</t>
+    <rPh sb="4" eb="6">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="7" eb="9">
       <t>ヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メニュー画面が表示されること</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -973,6 +981,102 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -982,107 +1086,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1436,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776758EE-792E-45DD-A875-220DAC06338B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1453,25 +1461,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="37" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40" t="s">
+      <c r="D1" s="44"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1486,23 +1494,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="41" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1515,50 +1523,50 @@
       <c r="Q2" s="12"/>
     </row>
     <row r="3" spans="1:17" ht="36.5" customHeight="1">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="50"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="33"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="50"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="33"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
@@ -1567,20 +1575,20 @@
       <c r="B5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="52" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
       <c r="M5" s="14" t="s">
         <v>13</v>
       </c>
@@ -1590,75 +1598,87 @@
       <c r="O5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="52" t="s">
+      <c r="P5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="53"/>
+      <c r="Q5" s="36"/>
     </row>
     <row r="6" spans="1:17" ht="13" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
     </row>
     <row r="7" spans="1:17" ht="13" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
     </row>
     <row r="8" spans="1:17" ht="13" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="18" t="s">
         <v>28</v>
       </c>
@@ -1666,9 +1686,15 @@
       <c r="J8" s="19"/>
       <c r="K8" s="19"/>
       <c r="L8" s="20"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="M8" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="17"/>
     </row>
@@ -1677,11 +1703,11 @@
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="18" t="s">
         <v>29</v>
       </c>
@@ -1689,9 +1715,15 @@
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="20"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="M9" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="17"/>
     </row>
@@ -1700,11 +1732,11 @@
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="18" t="s">
         <v>30</v>
       </c>
@@ -1712,9 +1744,15 @@
       <c r="J10" s="19"/>
       <c r="K10" s="19"/>
       <c r="L10" s="20"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="M10" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="17"/>
     </row>
@@ -1723,11 +1761,11 @@
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="18" t="s">
         <v>31</v>
       </c>
@@ -1735,9 +1773,15 @@
       <c r="J11" s="19"/>
       <c r="K11" s="19"/>
       <c r="L11" s="20"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="M11" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="P11" s="16"/>
       <c r="Q11" s="17"/>
     </row>
@@ -1746,11 +1790,11 @@
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="18" t="s">
         <v>32</v>
       </c>
@@ -1758,9 +1802,15 @@
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="20"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="M12" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="17"/>
     </row>
@@ -1769,11 +1819,11 @@
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="18" t="s">
         <v>33</v>
       </c>
@@ -1781,9 +1831,15 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
       <c r="L13" s="20"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
+      <c r="M13" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="P13" s="16"/>
       <c r="Q13" s="17"/>
     </row>
@@ -1792,13 +1848,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="18" t="s">
         <v>35</v>
       </c>
@@ -1806,9 +1862,15 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="M14" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="P14" s="16"/>
       <c r="Q14" s="17"/>
     </row>
@@ -1817,13 +1879,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
       <c r="H15" s="18" t="s">
         <v>52</v>
       </c>
@@ -1831,9 +1893,15 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="20"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
+      <c r="M15" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="P15" s="16"/>
       <c r="Q15" s="17"/>
     </row>
@@ -1842,11 +1910,11 @@
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="18" t="s">
         <v>37</v>
       </c>
@@ -1854,9 +1922,15 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
+      <c r="M16" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="P16" s="16"/>
       <c r="Q16" s="17"/>
     </row>
@@ -1864,7 +1938,7 @@
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -1874,24 +1948,30 @@
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
     </row>
     <row r="18" spans="1:17" ht="13" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="18" t="s">
         <v>40</v>
       </c>
@@ -1899,24 +1979,30 @@
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
     </row>
     <row r="19" spans="1:17" ht="13" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="25"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="18" t="s">
         <v>42</v>
       </c>
@@ -1924,24 +2010,30 @@
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
     </row>
     <row r="20" spans="1:17" ht="13" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="25"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="18" t="s">
         <v>44</v>
       </c>
@@ -1949,24 +2041,30 @@
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="1:17" ht="13" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="25"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="18" t="s">
         <v>46</v>
       </c>
@@ -1974,67 +2072,83 @@
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="28" t="s">
+      <c r="H21" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
     </row>
     <row r="22" spans="1:17" ht="13" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27" t="s">
+      <c r="B22" s="56"/>
+      <c r="C22" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="21" t="s">
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
     </row>
     <row r="23" spans="1:17" ht="56.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="7"/>
+      <c r="H23" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>59</v>
+      </c>
       <c r="O23" s="7"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="17"/>
@@ -2043,24 +2157,30 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="25"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
+      <c r="H24" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>58</v>
+      </c>
       <c r="P24" s="16"/>
       <c r="Q24" s="17"/>
     </row>
@@ -2068,61 +2188,42 @@
       <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="26"/>
+      <c r="B25" s="56"/>
       <c r="C25" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="53" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="15">
+        <v>45511</v>
+      </c>
+      <c r="N25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="16"/>
       <c r="Q25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="C17:G17"/>
@@ -2139,15 +2240,38 @@
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:L21"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G16"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/plan/test/結合テスト/結合テスト仕様書-BP018注文ステータス更新(完了)画面.xlsx
+++ b/plan/test/結合テスト/結合テスト仕様書-BP018注文ステータス更新(完了)画面.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fullness\Desktop\work\java-review\ec-b\plan\test\結合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F28933-0BF5-41CB-8B96-495564785B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12259403-516A-4772-9B83-101C66B900C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="62">
   <si>
     <t>作成者</t>
   </si>
@@ -919,7 +919,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -954,9 +954,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,6 +978,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -990,6 +1011,75 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -998,99 +1088,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1445,7 +1442,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -1461,25 +1458,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="43" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46" t="s">
+      <c r="D1" s="37"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1494,23 +1491,23 @@
       </c>
     </row>
     <row r="2" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="47" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1520,111 +1517,113 @@
       <c r="P2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="12"/>
+      <c r="Q2" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="36.5" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="34" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="49"/>
     </row>
     <row r="4" spans="1:17" ht="14" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="33"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="49"/>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="35" t="s">
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="14" t="s">
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="14" t="s">
+      <c r="N5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="P5" s="35" t="s">
+      <c r="P5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="Q5" s="36"/>
+      <c r="Q5" s="52"/>
     </row>
     <row r="6" spans="1:17" ht="13" customHeight="1">
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="15">
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="14">
         <v>45511</v>
       </c>
       <c r="N6" s="7" t="s">
@@ -1633,29 +1632,29 @@
       <c r="O6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
     </row>
     <row r="7" spans="1:17" ht="13" customHeight="1">
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39" t="s">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="15">
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="14">
         <v>45511</v>
       </c>
       <c r="N7" s="7" t="s">
@@ -1664,29 +1663,29 @@
       <c r="O7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
     </row>
     <row r="8" spans="1:17" ht="13" customHeight="1">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="18" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="15">
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="14">
         <v>45511</v>
       </c>
       <c r="N8" s="7" t="s">
@@ -1695,27 +1694,27 @@
       <c r="O8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="1:17" ht="13" customHeight="1">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="18" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="15">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="14">
         <v>45511</v>
       </c>
       <c r="N9" s="7" t="s">
@@ -1724,27 +1723,27 @@
       <c r="O9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="1:17" ht="13" customHeight="1">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="18" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="15">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="14">
         <v>45511</v>
       </c>
       <c r="N10" s="7" t="s">
@@ -1753,27 +1752,27 @@
       <c r="O10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="1:17" ht="13" customHeight="1">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="18" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="15">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="14">
         <v>45511</v>
       </c>
       <c r="N11" s="7" t="s">
@@ -1782,27 +1781,27 @@
       <c r="O11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="16"/>
     </row>
     <row r="12" spans="1:17" ht="13" customHeight="1">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="18" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="15">
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="14">
         <v>45511</v>
       </c>
       <c r="N12" s="7" t="s">
@@ -1811,27 +1810,27 @@
       <c r="O12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
     </row>
     <row r="13" spans="1:17" ht="13" customHeight="1">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="18" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="15">
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="14">
         <v>45511</v>
       </c>
       <c r="N13" s="7" t="s">
@@ -1840,29 +1839,29 @@
       <c r="O13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="16"/>
     </row>
     <row r="14" spans="1:17" ht="13" customHeight="1">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8"/>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="18" t="s">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="15">
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="14">
         <v>45511</v>
       </c>
       <c r="N14" s="7" t="s">
@@ -1871,29 +1870,29 @@
       <c r="O14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="17"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="60" customHeight="1">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8"/>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="18" t="s">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="15">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="14">
         <v>45511</v>
       </c>
       <c r="N15" s="7" t="s">
@@ -1902,27 +1901,27 @@
       <c r="O15" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="17"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16"/>
     </row>
     <row r="16" spans="1:17" ht="13" customHeight="1">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="8"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="18" t="s">
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="15">
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="14">
         <v>45511</v>
       </c>
       <c r="N16" s="7" t="s">
@@ -1931,31 +1930,31 @@
       <c r="O16" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="17"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="16"/>
     </row>
     <row r="17" spans="1:17" ht="13" customHeight="1">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="39" t="s">
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="15">
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="14">
         <v>45511</v>
       </c>
       <c r="N17" s="7" t="s">
@@ -1964,29 +1963,29 @@
       <c r="O17" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
     </row>
     <row r="18" spans="1:17" ht="13" customHeight="1">
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="39" t="s">
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="15">
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="14">
         <v>45511</v>
       </c>
       <c r="N18" s="7" t="s">
@@ -1995,29 +1994,29 @@
       <c r="O18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
     </row>
     <row r="19" spans="1:17" ht="13" customHeight="1">
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="39" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="15">
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="14">
         <v>45511</v>
       </c>
       <c r="N19" s="7" t="s">
@@ -2026,29 +2025,29 @@
       <c r="O19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
     </row>
     <row r="20" spans="1:17" ht="13" customHeight="1">
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="39" t="s">
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="15">
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="14">
         <v>45511</v>
       </c>
       <c r="N20" s="7" t="s">
@@ -2057,29 +2056,29 @@
       <c r="O20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="1:17" ht="13" customHeight="1">
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="39" t="s">
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="15">
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="14">
         <v>45511</v>
       </c>
       <c r="N21" s="7" t="s">
@@ -2088,29 +2087,29 @@
       <c r="O21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
     </row>
     <row r="22" spans="1:17" ht="13" customHeight="1">
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="57" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="53" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="15">
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="14">
         <v>45511</v>
       </c>
       <c r="N22" s="7" t="s">
@@ -2119,60 +2118,62 @@
       <c r="O22" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
     </row>
     <row r="23" spans="1:17" ht="56.5" customHeight="1">
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="53" t="s">
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="15">
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="14">
         <v>45511</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="17"/>
+      <c r="O23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="16"/>
     </row>
     <row r="24" spans="1:17" ht="58.5" customHeight="1">
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="53" t="s">
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="15">
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="14">
         <v>45511</v>
       </c>
       <c r="N24" s="7" t="s">
@@ -2181,49 +2182,74 @@
       <c r="O24" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="17"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="16"/>
     </row>
     <row r="25" spans="1:17" ht="58.5" customHeight="1">
       <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="53" t="s">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="15">
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="14">
         <v>45511</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O25" s="7"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="17"/>
+      <c r="O25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C8:G13"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:Q3"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:L5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:M2"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="C15:G16"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="H16:L16"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="C17:G17"/>
@@ -2240,38 +2266,15 @@
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:L21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="C15:G16"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:M2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:Q3"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:L5"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C8:G13"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
